--- a/data/api_test.xlsx
+++ b/data/api_test.xlsx
@@ -4,18 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="10365"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="修改个人信息" sheetId="4" r:id="rId3"/>
+    <sheet name="广告数据用例" sheetId="3" r:id="rId4"/>
+    <sheet name="查询素材管理信息" sheetId="5" r:id="rId5"/>
+    <sheet name="查询授权账号" sheetId="6" r:id="rId6"/>
+    <sheet name="查询计划数据" sheetId="7" r:id="rId7"/>
+    <sheet name="查询账号数据" sheetId="8" r:id="rId8"/>
+    <sheet name="查询素材数据" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="50">
   <si>
     <t>用例编号</t>
   </si>
@@ -57,13 +64,164 @@
     <t>POST</t>
   </si>
   <si>
-    <t>http://xctestadmin.xczxwe.com/prod/system/login</t>
+    <t>prod/system/login</t>
   </si>
   <si>
     <t>json</t>
   </si>
   <si>
-    <t>{"username": "冯苗志", "password": "123456"}</t>
+    <t>{"username":"冯苗志","password":"123456","code":"wa4b"}</t>
+  </si>
+  <si>
+    <t>获取用户权限信息</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>prod/system/getInfo</t>
+  </si>
+  <si>
+    <t>test-1</t>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+  </si>
+  <si>
+    <t>prod/system/user/updateInfo</t>
+  </si>
+  <si>
+    <t>{
+ "id": 15,
+ "username": "冯苗志",
+ "user_type": "100",
+ "nickname": "111",
+ "phone": "123",
+ "email": "213",
+ "avatar": null,
+ "signed": "123",
+ "dashboard": null,
+ "dept_id": null,
+ "status": 1,
+ "login_ip": "116.21.13.84",
+ "login_time": "2023-09-05 11:57:55",
+ "backend_setting": null,
+ "created_by": 1,
+ "updated_by": 15,
+ "created_at": "2023-09-01 09:54:19",
+ "updated_at": "2023-09-05 11:57:55",
+ "remark": null,
+ "code": ""
+}</t>
+  </si>
+  <si>
+    <t>test01</t>
+  </si>
+  <si>
+    <t>查询广告账号数据列表</t>
+  </si>
+  <si>
+    <t>prod/oc/advertiser/index</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{"page":"1","pageSize":"10","advertiser_id":"1765143972750414","tt_id":"","advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>test_01</t>
+  </si>
+  <si>
+    <t>查询素材管理</t>
+  </si>
+  <si>
+    <t>prod/oc/material/index</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"",
+"advertiser_id":"",
+"title":""}</t>
+  </si>
+  <si>
+    <t>查询授权账号信息</t>
+  </si>
+  <si>
+    <t>/prod/oc/authUser/index</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"account":"",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>查询计划数据列表</t>
+  </si>
+  <si>
+    <t>/prod/oc/planStatistics/index</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"advertiser_id":"",
+"advertiser.advertiser_name":"",
+"plan_id":"",
+"promotion.promotion_name":""}</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>断言警告</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>查询账号数据列表</t>
+  </si>
+  <si>
+    <t>/prod/oc/accountStatistics/index</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"advertiser_id":"",
+"advertiser.advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>result.json()['code'] == 200</t>
+  </si>
+  <si>
+    <t>code不为200</t>
+  </si>
+  <si>
+    <t>查询素材数据列表</t>
+  </si>
+  <si>
+    <t>/prod/oc/materialStatistics/index</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"",
+"material.title":""}</t>
+  </si>
+  <si>
+    <t>test-02</t>
+  </si>
+  <si>
+    <t>根据素材id查询素材数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"6875882352018259976",
+"material.title":""}</t>
   </si>
 </sst>
 </file>
@@ -76,7 +234,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +245,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -95,7 +260,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,144 +714,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,8 +1393,8 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1256,13 +1433,13 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
@@ -1274,7 +1451,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://xctestadmin.xczxwe.com/prod/system/login"/>
+    <hyperlink ref="E2" r:id="rId1" display="prod/system/login" tooltip="http://xctestadmin.xczxwe.com/prod/system/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1284,14 +1461,589 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="48.5" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="55.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="318" customHeight="1" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="prod/system/getInfo" tooltip="http://xctestadmin.xczxwe.com/prod/system/getInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="44.375" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="378" spans="1:7">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="prod/oc/advertiser/index" tooltip="http://xctestadmin.xczxwe.com/prod/oc/advertiser/index?page=1&amp;pageSize=10&amp;advertiser_id=&amp;tt_id=&amp;advertiser_name="/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="7" max="7" width="79" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="364.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="391.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="36.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="7" max="7" width="37.75" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:9">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/data/api_test.xlsx
+++ b/data/api_test.xlsx
@@ -844,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,9 +858,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
@@ -1394,7 +1391,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1433,13 +1430,13 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">

--- a/data/api_test.xlsx
+++ b/data/api_test.xlsx
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1959,8 +1959,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>

--- a/data/api_test.xlsx
+++ b/data/api_test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
   <si>
     <t>用例编号</t>
   </si>
@@ -176,9 +176,6 @@
     <t>断言</t>
   </si>
   <si>
-    <t>断言警告</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -194,10 +191,7 @@
 "advertiser.advertiser_name":""}</t>
   </si>
   <si>
-    <t>result.json()['code'] == 200</t>
-  </si>
-  <si>
-    <t>code不为200</t>
+    <t>[{"condition":"result.json()['code'] == 200","message":"code不为200"},{"condition":"len(result.json()['data'])&gt;0","message":"data不为0"}]</t>
   </si>
   <si>
     <t>查询素材数据列表</t>
@@ -1874,23 +1868,23 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="33.25" customWidth="1"/>
     <col min="7" max="7" width="37.75" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="54.625" customWidth="1"/>
     <col min="9" max="9" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1915,16 +1909,13 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" ht="409.5" spans="1:8">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1933,19 +1924,16 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1996,10 +1984,10 @@
     </row>
     <row r="2" ht="409.5" spans="1:7">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2008,21 +1996,21 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:7">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -2031,13 +2019,13 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_test.xlsx
+++ b/data/api_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="184">
   <si>
     <t>用例编号</t>
   </si>
@@ -45,10 +45,99 @@
     <t>请求数据</t>
   </si>
   <si>
+    <t>断言</t>
+  </si>
+  <si>
     <t>test001</t>
   </si>
   <si>
     <t>用户登录</t>
+  </si>
+  <si>
+    <t>{"Referer":"http://xctestadmin.xczxwe.com/" }</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>prod/system/login</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{"username":"冯苗志","password":"123456"}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 200","message":"code不为200"}]</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>用户登录
+-密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"冯苗志","password":"123456789"}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 1011","message":"code不为1011，目标需为密码不正确"}]</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>用户登录
+-账号为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"123456"}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 1002","message":"code不为1002，目标需为账号为空"}]</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>用户登录
+-密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"冯苗志","password":""}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 1002","message":"code不为1002，目标需为密码为空"}]</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>用户登录
+-账号密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 1002","message":"code不为1002，目标需为账号密码为空"}]</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>用户登录
+-密码长度&lt;6字符</t>
+  </si>
+  <si>
+    <t>{"username":"冯苗志","password":"123"}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 1002","message":"code不为1002，密码长度需&lt;6"}]</t>
+  </si>
+  <si>
+    <t>获取用户权限信息</t>
   </si>
   <si>
     <t>{"Accept": "application/json, text/plain, */*",
@@ -61,21 +150,6 @@
                   "Content-Type": "application/json;charset=UTF-8"}</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>prod/system/login</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>{"username":"冯苗志","password":"123456","code":"wa4b"}</t>
-  </si>
-  <si>
-    <t>获取用户权限信息</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -96,7 +170,7 @@
  "username": "冯苗志",
  "user_type": "100",
  "nickname": "111",
- "phone": "123",
+ "phone": "9527",
  "email": "213",
  "avatar": null,
  "signed": "123",
@@ -127,13 +201,110 @@
     <t>params</t>
   </si>
   <si>
-    <t>{"page":"1","pageSize":"10","advertiser_id":"1765143972750414","tt_id":"","advertiser_name":""}</t>
+    <t>{"page":"1","pageSize":"10",
+"advertiser_id":"","tt_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 200","message":"code不为200"},
+{"condition":"len(result.json()['data'])&gt;0","message":"data不为空"}]</t>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>根据巨量广告ID
+查询广告账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1","pageSize":"10",
+"advertiser_id":"1762144929589256",
+"tt_id":"","advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>根据广告主ID
+查询广告账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1","pageSize":"10",
+"advertiser_id":"",
+"tt_id":"2278618719337208",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>test04</t>
+  </si>
+  <si>
+    <t>根据巨量广告名称
+查询广告账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1","pageSize":"10","advertiser_id":"","tt_id":"","advertiser_name":"楚泽恩-ZN-主户（禁止投放&amp;禁止绑定）"}</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>根据巨量广告ID（不存在）
+查询广告账号数据（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1","pageSize":"10",
+"advertiser_id":"123456","tt_id":"",
+"advertiser_name":" "}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 200","message":"code不为200"},
+{"condition":"len(result.json()['data']['items'])==0 ","message":"查询目标的返回值需为空"}]</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>根据广告主ID（不存在）
+查询广告账号数据（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1","pageSize":"10",
+"advertiser_id":"","tt_id":"123456",
+"advertiser_name":" "}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 200","message":"code不为200"},
+{"condition":"len(result.json()['data']['items'])==0","message":"查询目标的返回值需为空"}]</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>根据巨量广告名称（不存在）
+查询广告账号数据（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1","pageSize":"10",
+"advertiser_id":"","tt_id":"",
+"advertiser_name":"123321"}</t>
+  </si>
+  <si>
+    <t>test08</t>
+  </si>
+  <si>
+    <t>根据巨量广告名称（模糊搜索，匹配后缀）
+查询广告账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1","pageSize":"10",
+"advertiser_id":"","tt_id":"",
+"advertiser_name":"123"}</t>
   </si>
   <si>
     <t>test_01</t>
   </si>
   <si>
-    <t>查询素材管理</t>
+    <t>查询素材管理数据列表</t>
   </si>
   <si>
     <t>prod/oc/material/index</t>
@@ -146,7 +317,105 @@
 "title":""}</t>
   </si>
   <si>
-    <t>查询授权账号信息</t>
+    <t>test-02</t>
+  </si>
+  <si>
+    <t>根据素材id
+查询素材数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"7166083109128486919",
+"advertiser_id":"",
+"title":""}</t>
+  </si>
+  <si>
+    <t>test-03</t>
+  </si>
+  <si>
+    <t>根据广告id
+查询素材数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"",
+"advertiser_id":"1746278926171149",
+"title":""}</t>
+  </si>
+  <si>
+    <t>test-04</t>
+  </si>
+  <si>
+    <t>根据素材id（不存在）
+查询素材数据（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"123",
+"advertiser_id":"",
+"title":""}</t>
+  </si>
+  <si>
+    <t>test-05</t>
+  </si>
+  <si>
+    <t>根据广告id（不存在）
+查询素材数据（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"",
+"advertiser_id":"123",
+"title":""}</t>
+  </si>
+  <si>
+    <t>test-06</t>
+  </si>
+  <si>
+    <t>根据素材标题
+查询素材数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"",
+"advertiser_id":"",
+"title":"推送视频_1114帝师龙婿1-松"}</t>
+  </si>
+  <si>
+    <t>test-07</t>
+  </si>
+  <si>
+    <t>根据素材标题（不存在）
+查询素材数据（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"",
+"advertiser_id":"",
+"title":"123123123"}</t>
+  </si>
+  <si>
+    <t>test-08</t>
+  </si>
+  <si>
+    <t>根据素材标题（模糊匹配）
+查询素材数据（匹配后缀）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"material_id":"",
+"advertiser_id":"",
+"title":"松"}</t>
+  </si>
+  <si>
+    <t>查询授权账号信息列表</t>
   </si>
   <si>
     <t>/prod/oc/authUser/index</t>
@@ -159,39 +428,369 @@
 "advertiser_name":""}</t>
   </si>
   <si>
+    <t>test_02</t>
+  </si>
+  <si>
+    <t>根据账号id查询授权账号信息</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"account":"4086252182191112",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>test_03</t>
+  </si>
+  <si>
+    <t>根据广告id查询授权账号信息</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"account":"",
+"advertiser_id":"1738026753219591",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>test_04</t>
+  </si>
+  <si>
+    <t>根据广告名称查询授权账号信息</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"account":"",
+"advertiser_id":"",
+"advertiser_name":"星橙在线"}</t>
+  </si>
+  <si>
+    <t>test_05</t>
+  </si>
+  <si>
+    <t>根据广告id（不存在）
+查询授权账号信息（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"account":"",
+"advertiser_id":"123",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>test_06</t>
+  </si>
+  <si>
+    <t>根据账号id（不存在）
+查询授权账号信息（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"account":"123123",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>test_07</t>
+  </si>
+  <si>
+    <t>根据广告名称（不存在）
+查询授权账号信息（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"account":"",
+"advertiser_id":"",
+"advertiser_name":"123123"}</t>
+  </si>
+  <si>
+    <t>test_08</t>
+  </si>
+  <si>
+    <t>根据广告名称（es中包含包含该词组）
+查询授权账号信息</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"account":"",
+"advertiser_id":"",
+"advertiser_name":"星橙"}</t>
+  </si>
+  <si>
     <t>查询计划数据列表</t>
   </si>
   <si>
     <t>/prod/oc/planStatistics/index</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"cdp_promotion_id":"",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 200","message":"code不为200"},{"condition":"len(result.json()['data'])&gt;0","message":"data不为0"}]</t>
+  </si>
+  <si>
+    <t>test-2</t>
+  </si>
+  <si>
+    <t>根据计划日期查询计划数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-09-18",
+"stat_time[1]":"2023-09-18",
+"cdp_promotion_id":"",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>test-3</t>
+  </si>
+  <si>
+    <t>根据计划id查询计划数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"cdp_promotion_id":"7275263344704897060",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>test-4</t>
+  </si>
+  <si>
+    <t>根据计划名称查询计划数据（es中包含该词组)</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"cdp_promotion_id":"",
+"plan_name":"点众"}</t>
+  </si>
+  <si>
+    <t>test-5</t>
+  </si>
+  <si>
+    <t>根据计划日期（不在有效日期内）
+查询计划数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-08-01",
+"stat_time[1]":"2023-08-31",
+"cdp_promotion_id":"",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>test-6</t>
+  </si>
+  <si>
+    <t>根据计划id(不存在)
+查询计划数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"cdp_promotion_id":"123",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>test-7</t>
+  </si>
+  <si>
+    <t>根据计划名称（es中不包含该词组）
+查询计划数据</t>
+  </si>
+  <si>
+    <t>test-8</t>
+  </si>
+  <si>
+    <t>根据计划日期（无效日期-有效日期）
+查询计划数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-08-18",
+"stat_time[1]":"2023-09-25",
+"cdp_promotion_id":"",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>test-9</t>
+  </si>
+  <si>
+    <t>根据计划日期（有效日期-无效日期）
+查询计划数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-09-18",
+"stat_time[1]":"2023-10-26",
+"cdp_promotion_id":"",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>test-10</t>
+  </si>
+  <si>
+    <t>根据计划日期（非法日期-合法日期）
+查询计划数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-09-00",
+"stat_time[1]":"2023-09-27",
+"cdp_promotion_id":"",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>[{"condition":"result.json()['code'] == 500","message":"code不为500"}]</t>
+  </si>
+  <si>
+    <t>test-11</t>
+  </si>
+  <si>
+    <t>根据计划日期（合法日期-非法日期）
+查询计划数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-09-18",
+"stat_time[1]":"2023-09-32",
+"cdp_promotion_id":"",
+"plan_name":""}</t>
+  </si>
+  <si>
+    <t>查询账号数据列表</t>
+  </si>
+  <si>
+    <t>/prod/oc/accountStatistics/index</t>
   </si>
   <si>
     <t>{"page":"1",
 "pageSize":"10",
 "advertiser_id":"",
-"advertiser.advertiser_name":"",
-"plan_id":"",
-"promotion.promotion_name":""}</t>
-  </si>
-  <si>
-    <t>断言</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>查询账号数据列表</t>
-  </si>
-  <si>
-    <t>/prod/oc/accountStatistics/index</t>
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>根据日期查询账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-09-01",
+"stat_time[1]":"2023-09-30",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>根据广告id查询账号数据</t>
+  </si>
+  <si>
+    <t>根据广告名称查询账号数据
+（es中包含该词组）</t>
   </si>
   <si>
     <t>{"page":"1",
 "pageSize":"10",
 "advertiser_id":"",
-"advertiser.advertiser_name":""}</t>
-  </si>
-  <si>
-    <t>[{"condition":"result.json()['code'] == 200","message":"code不为200"},{"condition":"len(result.json()['data'])&gt;0","message":"data不为0"}]</t>
+"advertiser_name":"点众"}</t>
+  </si>
+  <si>
+    <t>根据日期查（不在有效日期内）
+询账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-08-01",
+"stat_time[1]":"2023-08-31",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>根据广告id（不存在）
+查询账号数据（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"advertiser_id":"1111",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>根据广告名称（es中不存在该词组）
+查询账号数据（数据为空）</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"advertiser_id":"",
+"advertiser_name":"1111"}</t>
+  </si>
+  <si>
+    <t>根据日期（无效日期—有效日期）
+查询账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-08-01",
+"stat_time[1]":"2023-09-30",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>根据日期（有效日期—无效日期）
+查询账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-09-01",
+"stat_time[1]":"2023-10-31",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>根据日期（合法日期—非法日期）
+查询账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-09-01",
+"stat_time[1]":"2023-09-32",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>根据日期（非法日期—合法日期）
+查询账号数据</t>
+  </si>
+  <si>
+    <t>{"page":"1",
+"pageSize":"10",
+"stat_time[0]":"2023-09-00",
+"stat_time[1]":"2023-09-30",
+"advertiser_id":"",
+"advertiser_name":""}</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>查询素材数据列表</t>
@@ -204,9 +803,6 @@
 "pageSize":"10",
 "material_id":"",
 "material.title":""}</t>
-  </si>
-  <si>
-    <t>test-02</t>
   </si>
   <si>
     <t>根据素材id查询素材数据</t>
@@ -838,9 +1434,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1382,19 +1981,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="42.25" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1416,33 +2017,174 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="243" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:8">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:8">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:8">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:8">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="prod/system/login" tooltip="http://xctestadmin.xczxwe.com/prod/system/login"/>
+    <hyperlink ref="E3" r:id="rId1" display="prod/system/login" tooltip="http://xctestadmin.xczxwe.com/prod/system/login"/>
+    <hyperlink ref="E4" r:id="rId1" display="prod/system/login" tooltip="http://xctestadmin.xczxwe.com/prod/system/login"/>
+    <hyperlink ref="E6" r:id="rId1" display="prod/system/login" tooltip="http://xctestadmin.xczxwe.com/prod/system/login"/>
+    <hyperlink ref="E5" r:id="rId1" display="prod/system/login" tooltip="http://xctestadmin.xczxwe.com/prod/system/login"/>
+    <hyperlink ref="E7" r:id="rId1" display="prod/system/login" tooltip="http://xctestadmin.xczxwe.com/prod/system/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1491,19 +2233,19 @@
     </row>
     <row r="2" ht="318" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +2263,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1556,27 +2298,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="378" spans="1:7">
+    <row r="2" ht="337.5" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1588,18 +2330,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1621,34 +2368,219 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:8">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:8">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:8">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:8">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:8">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:8">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:8">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="prod/oc/advertiser/index" tooltip="http://xctestadmin.xczxwe.com/prod/oc/advertiser/index?page=1&amp;pageSize=10&amp;advertiser_id=&amp;tt_id=&amp;advertiser_name="/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1657,22 +2589,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="7" max="7" width="79" customWidth="1"/>
     <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1694,28 +2626,216 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="364.5" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:8">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:8">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="121.5" spans="1:8">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" ht="121.5" spans="1:8">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:8">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="121.5" spans="1:8">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:8">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1727,23 +2847,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="39.875" customWidth="1"/>
     <col min="5" max="5" width="29.875" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1765,28 +2886,216 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="391.5" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:8">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:8">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:8">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="121.5" spans="1:8">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="121.5" spans="1:8">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" ht="121.5" spans="1:8">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:8">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1798,22 +3107,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="36.125" customWidth="1"/>
+    <col min="8" max="8" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1835,28 +3145,294 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:8">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>124</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:8">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:8">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:8">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:8">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:8">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" ht="108" spans="1:8">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="81" spans="1:8">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:8">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" ht="81" spans="1:8">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:8">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1868,13 +3444,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -1907,33 +3483,293 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:8">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:8">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:8">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="81" spans="1:8">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:8">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:8">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="81" spans="1:8">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:8">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="81" spans="1:8">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:8">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1945,21 +3781,22 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="42.375" customWidth="1"/>
     <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="8" max="8" width="54.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1981,51 +3818,60 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" ht="409.5" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:8">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>183</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
